--- a/Code/Results/Cases/Case_5_147/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_147/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.50195342105286</v>
+        <v>21.33417609464695</v>
       </c>
       <c r="C2">
-        <v>17.80491887943693</v>
+        <v>13.7319593977505</v>
       </c>
       <c r="D2">
-        <v>3.232436531443977</v>
+        <v>5.424431649444723</v>
       </c>
       <c r="E2">
-        <v>6.888059901854571</v>
+        <v>11.71371822519222</v>
       </c>
       <c r="F2">
-        <v>64.25268216029821</v>
+        <v>56.73657998384414</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.311514655261774</v>
+        <v>10.62657631756342</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.67778339701361</v>
+        <v>21.01014982325731</v>
       </c>
       <c r="C3">
-        <v>16.45053660850816</v>
+        <v>13.44516397771524</v>
       </c>
       <c r="D3">
-        <v>3.043249100804579</v>
+        <v>5.441226985526795</v>
       </c>
       <c r="E3">
-        <v>6.720934327283086</v>
+        <v>11.74800703038225</v>
       </c>
       <c r="F3">
-        <v>60.68416153817484</v>
+        <v>55.82059686700996</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.132029754693024</v>
+        <v>10.62669444130058</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.51513414207044</v>
+        <v>20.81808330194124</v>
       </c>
       <c r="C4">
-        <v>15.58776202080355</v>
+        <v>13.27317944290389</v>
       </c>
       <c r="D4">
-        <v>2.925627917490185</v>
+        <v>5.452785114293771</v>
       </c>
       <c r="E4">
-        <v>6.625468090713409</v>
+        <v>11.77214752248018</v>
       </c>
       <c r="F4">
-        <v>58.46631482358836</v>
+        <v>55.2617277419921</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.026744131200401</v>
+        <v>10.62871201803797</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03031415683607</v>
+        <v>20.74166084314975</v>
       </c>
       <c r="C5">
-        <v>15.228025260812</v>
+        <v>13.20425318476512</v>
       </c>
       <c r="D5">
-        <v>2.877269886932067</v>
+        <v>5.457805813967542</v>
       </c>
       <c r="E5">
-        <v>6.588314321210633</v>
+        <v>11.78275943283462</v>
       </c>
       <c r="F5">
-        <v>57.55582136839337</v>
+        <v>55.0350970619826</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.985026287153473</v>
+        <v>10.63002224102813</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.9491362684279</v>
+        <v>20.72908571583842</v>
       </c>
       <c r="C6">
-        <v>15.16779119475015</v>
+        <v>13.19288166837769</v>
       </c>
       <c r="D6">
-        <v>2.86921281145131</v>
+        <v>5.458658185591693</v>
       </c>
       <c r="E6">
-        <v>6.582249318256796</v>
+        <v>11.78456825354809</v>
       </c>
       <c r="F6">
-        <v>57.40423567586429</v>
+        <v>54.99753884496861</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.978169431292079</v>
+        <v>10.63026924481128</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.5086407128093</v>
+        <v>20.81704501867803</v>
       </c>
       <c r="C7">
-        <v>15.5829438447162</v>
+        <v>13.27224502208283</v>
       </c>
       <c r="D7">
-        <v>2.92497754051286</v>
+        <v>5.452851570715548</v>
       </c>
       <c r="E7">
-        <v>6.624959998179329</v>
+        <v>11.77228750506529</v>
       </c>
       <c r="F7">
-        <v>58.45406250114132</v>
+        <v>55.25866652454647</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.026176764767428</v>
+        <v>10.62872771360538</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.88160239197635</v>
+        <v>21.22109236939025</v>
       </c>
       <c r="C8">
-        <v>17.3441931505489</v>
+        <v>13.63229510556395</v>
       </c>
       <c r="D8">
-        <v>3.167467720997953</v>
+        <v>5.429962578166216</v>
       </c>
       <c r="E8">
-        <v>6.828919885517625</v>
+        <v>11.72489924473337</v>
       </c>
       <c r="F8">
-        <v>63.02773961576803</v>
+        <v>56.42014548838484</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.24857462549659</v>
+        <v>10.62621276812216</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.21625964616545</v>
+        <v>22.06286437968505</v>
       </c>
       <c r="C9">
-        <v>20.56818367508405</v>
+        <v>14.36542828665378</v>
       </c>
       <c r="D9">
-        <v>3.634865600230003</v>
+        <v>5.395077532701854</v>
       </c>
       <c r="E9">
-        <v>7.288307014313403</v>
+        <v>11.65654190539006</v>
       </c>
       <c r="F9">
-        <v>71.7992461914355</v>
+        <v>58.71623086377619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.726554886654046</v>
+        <v>10.63675525203227</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.2419177554563</v>
+        <v>22.70433347311695</v>
       </c>
       <c r="C10">
-        <v>22.8277336633576</v>
+        <v>14.91328305908655</v>
       </c>
       <c r="D10">
-        <v>3.979562156669934</v>
+        <v>5.375703544588776</v>
       </c>
       <c r="E10">
-        <v>7.667097721746645</v>
+        <v>11.62139843535138</v>
       </c>
       <c r="F10">
-        <v>78.17063731819985</v>
+        <v>60.40148633763616</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.108484105006339</v>
+        <v>10.65398212094578</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.59460012126172</v>
+        <v>22.99963746556549</v>
       </c>
       <c r="C11">
-        <v>23.84121279681649</v>
+        <v>15.1630459730539</v>
       </c>
       <c r="D11">
-        <v>4.138573992144976</v>
+        <v>5.368282667360546</v>
       </c>
       <c r="E11">
-        <v>7.850058059517412</v>
+        <v>11.60870379205071</v>
       </c>
       <c r="F11">
-        <v>81.07258883271872</v>
+        <v>61.16511981141905</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.290599262609071</v>
+        <v>10.66388420803139</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.10459669394878</v>
+        <v>23.11184004621802</v>
       </c>
       <c r="C12">
-        <v>24.2239273654611</v>
+        <v>15.25758697405184</v>
       </c>
       <c r="D12">
-        <v>4.199317805556635</v>
+        <v>5.365675639066692</v>
       </c>
       <c r="E12">
-        <v>7.921070317605383</v>
+        <v>11.60437138719247</v>
       </c>
       <c r="F12">
-        <v>82.17437228027967</v>
+        <v>61.45364111745052</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.360961023318456</v>
+        <v>10.6679309994037</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.99483735468731</v>
+        <v>23.08766039212428</v>
       </c>
       <c r="C13">
-        <v>24.14153178923394</v>
+        <v>15.23722939185933</v>
       </c>
       <c r="D13">
-        <v>4.186208021490036</v>
+        <v>5.366228030820158</v>
       </c>
       <c r="E13">
-        <v>7.905695807622681</v>
+        <v>11.60528331210928</v>
       </c>
       <c r="F13">
-        <v>81.93690973450748</v>
+        <v>61.39153521181725</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.345741422803238</v>
+        <v>10.66704623857289</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.63659487259302</v>
+        <v>23.00886158348248</v>
       </c>
       <c r="C14">
-        <v>23.87271373306112</v>
+        <v>15.17082534080034</v>
       </c>
       <c r="D14">
-        <v>4.143559401167715</v>
+        <v>5.368064098793457</v>
       </c>
       <c r="E14">
-        <v>7.855864263879841</v>
+        <v>11.60833783995902</v>
       </c>
       <c r="F14">
-        <v>81.16315932290553</v>
+        <v>61.18887088966386</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.296358612860015</v>
+        <v>10.66421118627664</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.41690972320889</v>
+        <v>22.96064051363406</v>
       </c>
       <c r="C15">
-        <v>23.70794976250579</v>
+        <v>15.13014253788669</v>
       </c>
       <c r="D15">
-        <v>4.117512059405199</v>
+        <v>5.369215277711546</v>
       </c>
       <c r="E15">
-        <v>7.825573145607745</v>
+        <v>11.61027069457963</v>
       </c>
       <c r="F15">
-        <v>80.6896724822694</v>
+        <v>61.06464210504606</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.266299124632697</v>
+        <v>10.66251332281504</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.1531338055873</v>
+        <v>22.68509423064422</v>
       </c>
       <c r="C16">
-        <v>22.76129101644494</v>
+        <v>14.89696124279161</v>
       </c>
       <c r="D16">
-        <v>3.969231724087806</v>
+        <v>5.376216780773181</v>
       </c>
       <c r="E16">
-        <v>7.655370639558239</v>
+        <v>11.62229442858697</v>
       </c>
       <c r="F16">
-        <v>77.98124546730253</v>
+        <v>60.35150187716746</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.096766328250837</v>
+        <v>10.65337657001777</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.37252722577043</v>
+        <v>22.51686088568181</v>
       </c>
       <c r="C17">
-        <v>22.17749994514695</v>
+        <v>14.75396572697598</v>
       </c>
       <c r="D17">
-        <v>3.878966954641631</v>
+        <v>5.380870652416437</v>
       </c>
       <c r="E17">
-        <v>7.553806418598999</v>
+        <v>11.63051484536426</v>
       </c>
       <c r="F17">
-        <v>76.32208854280587</v>
+        <v>59.91308748018211</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.995029775154773</v>
+        <v>10.64830060648246</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.92122711363496</v>
+        <v>22.42043396983841</v>
       </c>
       <c r="C18">
-        <v>21.84029111352371</v>
+        <v>14.67177601581197</v>
       </c>
       <c r="D18">
-        <v>3.827241464442336</v>
+        <v>5.383678328514796</v>
       </c>
       <c r="E18">
-        <v>7.49637654992125</v>
+        <v>11.63555282671356</v>
       </c>
       <c r="F18">
-        <v>75.36794187012012</v>
+        <v>59.66065362951017</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.937287306766075</v>
+        <v>10.64557546991092</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.7679955530204</v>
+        <v>22.38784712926886</v>
       </c>
       <c r="C19">
-        <v>21.72584597040417</v>
+        <v>14.64396152654539</v>
       </c>
       <c r="D19">
-        <v>3.809755516983879</v>
+        <v>5.384651353008263</v>
       </c>
       <c r="E19">
-        <v>7.477096251519747</v>
+        <v>11.63731176798908</v>
       </c>
       <c r="F19">
-        <v>75.04485059782398</v>
+        <v>59.57514437638834</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.917864531776219</v>
+        <v>10.64468617239992</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.45585619188653</v>
+        <v>22.53473570896236</v>
       </c>
       <c r="C20">
-        <v>22.23978673976879</v>
+        <v>14.76918275443273</v>
       </c>
       <c r="D20">
-        <v>3.888554508647964</v>
+        <v>5.380361672251107</v>
       </c>
       <c r="E20">
-        <v>7.564514689919341</v>
+        <v>11.62960769302711</v>
       </c>
       <c r="F20">
-        <v>76.49867761023189</v>
+        <v>59.95978694254407</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.005778495604414</v>
+        <v>10.64882082823007</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.74186922178791</v>
+        <v>23.03199744578647</v>
       </c>
       <c r="C21">
-        <v>23.95169187578156</v>
+        <v>15.19033177075132</v>
       </c>
       <c r="D21">
-        <v>4.156070003119932</v>
+        <v>5.367519266288252</v>
       </c>
       <c r="E21">
-        <v>7.870452171702853</v>
+        <v>11.60742775561826</v>
       </c>
       <c r="F21">
-        <v>81.39032789316374</v>
+        <v>61.24841766541007</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.310823740706216</v>
+        <v>10.66503584749309</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.22365732278349</v>
+        <v>23.35913058884639</v>
       </c>
       <c r="C22">
-        <v>25.06495508198031</v>
+        <v>15.46530141010052</v>
       </c>
       <c r="D22">
-        <v>4.334134301555896</v>
+        <v>5.360311146176263</v>
       </c>
       <c r="E22">
-        <v>8.080620936771437</v>
+        <v>11.5956997934324</v>
       </c>
       <c r="F22">
-        <v>84.60575771580949</v>
+        <v>62.08672698572727</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.518477232722867</v>
+        <v>10.67736483197318</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.43345179111424</v>
+        <v>23.1843778805146</v>
       </c>
       <c r="C23">
-        <v>24.47089500113877</v>
+        <v>15.31860700261022</v>
       </c>
       <c r="D23">
-        <v>4.238717533205516</v>
+        <v>5.364048868552792</v>
       </c>
       <c r="E23">
-        <v>7.967431532817749</v>
+        <v>11.60170555530119</v>
       </c>
       <c r="F23">
-        <v>82.88694537945986</v>
+        <v>61.63973136927605</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.4068097919347</v>
+        <v>10.6706262154136</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.41819109703912</v>
+        <v>22.52665358018889</v>
       </c>
       <c r="C24">
-        <v>22.21163187225466</v>
+        <v>14.76230306412305</v>
       </c>
       <c r="D24">
-        <v>3.884219464565027</v>
+        <v>5.380591370928613</v>
       </c>
       <c r="E24">
-        <v>7.559670501982175</v>
+        <v>11.63001684503501</v>
       </c>
       <c r="F24">
-        <v>76.41884271835852</v>
+        <v>59.93867529365547</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.000916685506187</v>
+        <v>10.64858503451442</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.07458862239106</v>
+        <v>21.83058227052967</v>
       </c>
       <c r="C25">
-        <v>19.71780539835041</v>
+        <v>14.16496131831086</v>
       </c>
       <c r="D25">
-        <v>3.508733156904202</v>
+        <v>5.403427808182557</v>
       </c>
       <c r="E25">
-        <v>7.157229291727305</v>
+        <v>11.67239310460167</v>
       </c>
       <c r="F25">
-        <v>69.44402110970709</v>
+        <v>58.09445005625863</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.592306611289261</v>
+        <v>10.6322408869079</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_147/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_147/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.33417609464695</v>
+        <v>24.50195342105298</v>
       </c>
       <c r="C2">
-        <v>13.7319593977505</v>
+        <v>17.80491887943695</v>
       </c>
       <c r="D2">
-        <v>5.424431649444723</v>
+        <v>3.23243653144411</v>
       </c>
       <c r="E2">
-        <v>11.71371822519222</v>
+        <v>6.888059901854453</v>
       </c>
       <c r="F2">
-        <v>56.73657998384414</v>
+        <v>64.25268216029869</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.62657631756342</v>
+        <v>7.31151465526169</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.01014982325731</v>
+        <v>22.67778339701362</v>
       </c>
       <c r="C3">
-        <v>13.44516397771524</v>
+        <v>16.45053660850806</v>
       </c>
       <c r="D3">
-        <v>5.441226985526795</v>
+        <v>3.043249100804622</v>
       </c>
       <c r="E3">
-        <v>11.74800703038225</v>
+        <v>6.720934327283022</v>
       </c>
       <c r="F3">
-        <v>55.82059686700996</v>
+        <v>60.68416153817488</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.62669444130058</v>
+        <v>7.132029754692976</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.81808330194124</v>
+        <v>21.51513414207048</v>
       </c>
       <c r="C4">
-        <v>13.27317944290389</v>
+        <v>15.58776202080365</v>
       </c>
       <c r="D4">
-        <v>5.452785114293771</v>
+        <v>2.925627917490329</v>
       </c>
       <c r="E4">
-        <v>11.77214752248018</v>
+        <v>6.625468090713345</v>
       </c>
       <c r="F4">
-        <v>55.2617277419921</v>
+        <v>58.46631482358853</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.62871201803797</v>
+        <v>7.026744131200402</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.74166084314975</v>
+        <v>21.03031415683605</v>
       </c>
       <c r="C5">
-        <v>13.20425318476512</v>
+        <v>15.22802526081188</v>
       </c>
       <c r="D5">
-        <v>5.457805813967542</v>
+        <v>2.877269886932117</v>
       </c>
       <c r="E5">
-        <v>11.78275943283462</v>
+        <v>6.588314321210611</v>
       </c>
       <c r="F5">
-        <v>55.0350970619826</v>
+        <v>57.55582136839335</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.63002224102813</v>
+        <v>6.985026287153506</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.72908571583842</v>
+        <v>20.94913626842785</v>
       </c>
       <c r="C6">
-        <v>13.19288166837769</v>
+        <v>15.16779119475022</v>
       </c>
       <c r="D6">
-        <v>5.458658185591693</v>
+        <v>2.869212811451282</v>
       </c>
       <c r="E6">
-        <v>11.78456825354809</v>
+        <v>6.582249318256824</v>
       </c>
       <c r="F6">
-        <v>54.99753884496861</v>
+        <v>57.40423567586437</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.63026924481128</v>
+        <v>6.97816943129209</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.81704501867803</v>
+        <v>21.50864071280935</v>
       </c>
       <c r="C7">
-        <v>13.27224502208283</v>
+        <v>15.58294384471621</v>
       </c>
       <c r="D7">
-        <v>5.452851570715548</v>
+        <v>2.924977540513047</v>
       </c>
       <c r="E7">
-        <v>11.77228750506529</v>
+        <v>6.624959998179287</v>
       </c>
       <c r="F7">
-        <v>55.25866652454647</v>
+        <v>58.45406250114127</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.62872771360538</v>
+        <v>7.026176764767454</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.22109236939025</v>
+        <v>23.88160239197629</v>
       </c>
       <c r="C8">
-        <v>13.63229510556395</v>
+        <v>17.34419315054862</v>
       </c>
       <c r="D8">
-        <v>5.429962578166216</v>
+        <v>3.167467720998067</v>
       </c>
       <c r="E8">
-        <v>11.72489924473337</v>
+        <v>6.828919885517654</v>
       </c>
       <c r="F8">
-        <v>56.42014548838484</v>
+        <v>63.0277396157682</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.62621276812216</v>
+        <v>7.248574625496658</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.06286437968505</v>
+        <v>28.2162596461657</v>
       </c>
       <c r="C9">
-        <v>14.36542828665378</v>
+        <v>20.56818367508427</v>
       </c>
       <c r="D9">
-        <v>5.395077532701854</v>
+        <v>3.634865600230054</v>
       </c>
       <c r="E9">
-        <v>11.65654190539006</v>
+        <v>7.288307014313386</v>
       </c>
       <c r="F9">
-        <v>58.71623086377619</v>
+        <v>71.79924619143613</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.63675525203227</v>
+        <v>7.726554886654055</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.70433347311695</v>
+        <v>31.24191775545625</v>
       </c>
       <c r="C10">
-        <v>14.91328305908655</v>
+        <v>22.82773366335754</v>
       </c>
       <c r="D10">
-        <v>5.375703544588776</v>
+        <v>3.979562156669927</v>
       </c>
       <c r="E10">
-        <v>11.62139843535138</v>
+        <v>7.667097721746637</v>
       </c>
       <c r="F10">
-        <v>60.40148633763616</v>
+        <v>78.17063731819968</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.65398212094578</v>
+        <v>8.10848410500633</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.99963746556549</v>
+        <v>32.59460012126183</v>
       </c>
       <c r="C11">
-        <v>15.1630459730539</v>
+        <v>23.84121279681662</v>
       </c>
       <c r="D11">
-        <v>5.368282667360546</v>
+        <v>4.138573992145025</v>
       </c>
       <c r="E11">
-        <v>11.60870379205071</v>
+        <v>7.850058059517447</v>
       </c>
       <c r="F11">
-        <v>61.16511981141905</v>
+        <v>81.07258883271908</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.66388420803139</v>
+        <v>8.290599262609124</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.11184004621802</v>
+        <v>33.10459669394877</v>
       </c>
       <c r="C12">
-        <v>15.25758697405184</v>
+        <v>24.22392736546115</v>
       </c>
       <c r="D12">
-        <v>5.365675639066692</v>
+        <v>4.199317805556677</v>
       </c>
       <c r="E12">
-        <v>11.60437138719247</v>
+        <v>7.921070317605386</v>
       </c>
       <c r="F12">
-        <v>61.45364111745052</v>
+        <v>82.17437228027957</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.6679309994037</v>
+        <v>8.360961023318447</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.08766039212428</v>
+        <v>32.99483735468731</v>
       </c>
       <c r="C13">
-        <v>15.23722939185933</v>
+        <v>24.14153178923381</v>
       </c>
       <c r="D13">
-        <v>5.366228030820158</v>
+        <v>4.186208021490059</v>
       </c>
       <c r="E13">
-        <v>11.60528331210928</v>
+        <v>7.905695807622712</v>
       </c>
       <c r="F13">
-        <v>61.39153521181725</v>
+        <v>81.93690973450771</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.66704623857289</v>
+        <v>8.345741422803254</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.00886158348248</v>
+        <v>32.63659487259299</v>
       </c>
       <c r="C14">
-        <v>15.17082534080034</v>
+        <v>23.87271373306106</v>
       </c>
       <c r="D14">
-        <v>5.368064098793457</v>
+        <v>4.14355940116776</v>
       </c>
       <c r="E14">
-        <v>11.60833783995902</v>
+        <v>7.855864263879806</v>
       </c>
       <c r="F14">
-        <v>61.18887088966386</v>
+        <v>81.16315932290523</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.66421118627664</v>
+        <v>8.296358612859994</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.96064051363406</v>
+        <v>32.41690972320903</v>
       </c>
       <c r="C15">
-        <v>15.13014253788669</v>
+        <v>23.70794976250618</v>
       </c>
       <c r="D15">
-        <v>5.369215277711546</v>
+        <v>4.117512059405207</v>
       </c>
       <c r="E15">
-        <v>11.61027069457963</v>
+        <v>7.82557314560774</v>
       </c>
       <c r="F15">
-        <v>61.06464210504606</v>
+        <v>80.68967248226956</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.66251332281504</v>
+        <v>8.266299124632674</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.68509423064422</v>
+        <v>31.15313380558724</v>
       </c>
       <c r="C16">
-        <v>14.89696124279161</v>
+        <v>22.76129101644493</v>
       </c>
       <c r="D16">
-        <v>5.376216780773181</v>
+        <v>3.969231724087806</v>
       </c>
       <c r="E16">
-        <v>11.62229442858697</v>
+        <v>7.655370639558229</v>
       </c>
       <c r="F16">
-        <v>60.35150187716746</v>
+        <v>77.98124546730243</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.65337657001777</v>
+        <v>8.096766328250817</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.51686088568181</v>
+        <v>30.37252722577043</v>
       </c>
       <c r="C17">
-        <v>14.75396572697598</v>
+        <v>22.17749994514718</v>
       </c>
       <c r="D17">
-        <v>5.380870652416437</v>
+        <v>3.878966954641709</v>
       </c>
       <c r="E17">
-        <v>11.63051484536426</v>
+        <v>7.553806418598969</v>
       </c>
       <c r="F17">
-        <v>59.91308748018211</v>
+        <v>76.32208854280626</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.64830060648246</v>
+        <v>7.995029775154783</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.42043396983841</v>
+        <v>29.921227113635</v>
       </c>
       <c r="C18">
-        <v>14.67177601581197</v>
+        <v>21.84029111352395</v>
       </c>
       <c r="D18">
-        <v>5.383678328514796</v>
+        <v>3.827241464442401</v>
       </c>
       <c r="E18">
-        <v>11.63555282671356</v>
+        <v>7.49637654992121</v>
       </c>
       <c r="F18">
-        <v>59.66065362951017</v>
+        <v>75.3679418701203</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.64557546991092</v>
+        <v>7.937287306766076</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.38784712926886</v>
+        <v>29.76799555302036</v>
       </c>
       <c r="C19">
-        <v>14.64396152654539</v>
+        <v>21.72584597040408</v>
       </c>
       <c r="D19">
-        <v>5.384651353008263</v>
+        <v>3.809755516983992</v>
       </c>
       <c r="E19">
-        <v>11.63731176798908</v>
+        <v>7.477096251519696</v>
       </c>
       <c r="F19">
-        <v>59.57514437638834</v>
+        <v>75.04485059782435</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.64468617239992</v>
+        <v>7.917864531776223</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.53473570896236</v>
+        <v>30.45585619188659</v>
       </c>
       <c r="C20">
-        <v>14.76918275443273</v>
+        <v>22.23978673976872</v>
       </c>
       <c r="D20">
-        <v>5.380361672251107</v>
+        <v>3.888554508647928</v>
       </c>
       <c r="E20">
-        <v>11.62960769302711</v>
+        <v>7.564514689919336</v>
       </c>
       <c r="F20">
-        <v>59.95978694254407</v>
+        <v>76.49867761023184</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.64882082823007</v>
+        <v>8.005778495604424</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.03199744578647</v>
+        <v>32.74186922178788</v>
       </c>
       <c r="C21">
-        <v>15.19033177075132</v>
+        <v>23.95169187578173</v>
       </c>
       <c r="D21">
-        <v>5.367519266288252</v>
+        <v>4.156070003119823</v>
       </c>
       <c r="E21">
-        <v>11.60742775561826</v>
+        <v>7.870452171702895</v>
       </c>
       <c r="F21">
-        <v>61.24841766541007</v>
+        <v>81.39032789316343</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.66503584749309</v>
+        <v>8.310823740706203</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.35913058884639</v>
+        <v>34.22365732278337</v>
       </c>
       <c r="C22">
-        <v>15.46530141010052</v>
+        <v>25.0649550819801</v>
       </c>
       <c r="D22">
-        <v>5.360311146176263</v>
+        <v>4.334134301555813</v>
       </c>
       <c r="E22">
-        <v>11.5956997934324</v>
+        <v>8.080620936771457</v>
       </c>
       <c r="F22">
-        <v>62.08672698572727</v>
+        <v>84.60575771580886</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.67736483197318</v>
+        <v>8.518477232722853</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.1843778805146</v>
+        <v>33.43345179111434</v>
       </c>
       <c r="C23">
-        <v>15.31860700261022</v>
+        <v>24.47089500113858</v>
       </c>
       <c r="D23">
-        <v>5.364048868552792</v>
+        <v>4.238717533205506</v>
       </c>
       <c r="E23">
-        <v>11.60170555530119</v>
+        <v>7.967431532817729</v>
       </c>
       <c r="F23">
-        <v>61.63973136927605</v>
+        <v>82.8869453794597</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.6706262154136</v>
+        <v>8.406809791934688</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.52665358018889</v>
+        <v>30.41819109703935</v>
       </c>
       <c r="C24">
-        <v>14.76230306412305</v>
+        <v>22.21163187225453</v>
       </c>
       <c r="D24">
-        <v>5.380591370928613</v>
+        <v>3.884219464565017</v>
       </c>
       <c r="E24">
-        <v>11.63001684503501</v>
+        <v>7.559670501982183</v>
       </c>
       <c r="F24">
-        <v>59.93867529365547</v>
+        <v>76.41884271835865</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.64858503451442</v>
+        <v>8.000916685506159</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.83058227052967</v>
+        <v>27.07458862239126</v>
       </c>
       <c r="C25">
-        <v>14.16496131831086</v>
+        <v>19.71780539835041</v>
       </c>
       <c r="D25">
-        <v>5.403427808182557</v>
+        <v>3.50873315690435</v>
       </c>
       <c r="E25">
-        <v>11.67239310460167</v>
+        <v>7.157229291727245</v>
       </c>
       <c r="F25">
-        <v>58.09445005625863</v>
+        <v>69.44402110970715</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.6322408869079</v>
+        <v>7.592306611289285</v>
       </c>
       <c r="K25">
         <v>0</v>
